--- a/biology/Médecine/Conduite_dopante/Conduite_dopante.xlsx
+++ b/biology/Médecine/Conduite_dopante/Conduite_dopante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une conduite dopante est une consommation de substance à des fins de performance[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une conduite dopante est une consommation de substance à des fins de performance.
 Plus précisément, il s'agit d'une consommation de substance pour affronter un obstacle réel ou ressenti, par l'usager ou par son entourage, à des fins de performances.
 Dans cette définition :
 « consommation » se décline en usage (consommation sans dommage sanitaire, ni social), abus (dommage sanitaire ou social) ou dépendance (perte de la liberté de s'abstenir volontairement de la substance, avec dommage sanitaire ou social. C'est la catégorisation habituelle, quoi qu'ici résumée, de la Classification internationale des maladies (CIM 10) ou du Diagnostic and Statistical Manual of Mental Disorders (DSM IV) ;
@@ -518,10 +530,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le concept de conduite dopante (en anglais doping behaviour[2]) a été proposé en 1997 par le Français Patrick Laure, médecin de santé publique[3].
-Il a été utilisé pour la première fois en France au plan national en 2000, dans la campagne de prévention de la Mission interministérielle de lutte contre la drogue et la toxicomanie (MILDT) « Drogues. Savoir plus, risquer moins »[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le concept de conduite dopante (en anglais doping behaviour) a été proposé en 1997 par le Français Patrick Laure, médecin de santé publique.
+Il a été utilisé pour la première fois en France au plan national en 2000, dans la campagne de prévention de la Mission interministérielle de lutte contre la drogue et la toxicomanie (MILDT) « Drogues. Savoir plus, risquer moins ».
 Actuellement[Quand ?] ce concept est utilisé couramment dans le champ de la prévention des consommations de substances, notamment auprès des sportifs, des étudiants et dans les entreprises.[réf. nécessaire]
 </t>
         </is>
